--- a/Delphine/BDPT/Solutions/Solutions.xlsx
+++ b/Delphine/BDPT/Solutions/Solutions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\BDPT\Solutions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Solutec\GithuB\BDepBDD\Delphine\BDPT\Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380C03CF-6C68-4947-9F4E-C1942DA8B916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C73E300-12B5-435B-B923-034EBFE93BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="MIN" sheetId="2" r:id="rId3"/>
     <sheet name="Feuil2" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$F$12</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
   <si>
     <t>Identifier la région et la typologie</t>
   </si>
@@ -162,9 +165,6 @@
     <t>OK</t>
   </si>
   <si>
-    <t>PreskOK</t>
-  </si>
-  <si>
     <t>PASOK</t>
   </si>
   <si>
@@ -214,12 +214,6 @@
     <t>RégionEST</t>
   </si>
   <si>
-    <t>Actualisation des autres mins c'est comment ? Le min faut le recup ou ?? Faut pas le faire par ligne quand meme zebi</t>
-  </si>
-  <si>
-    <t>OK a faire</t>
-  </si>
-  <si>
     <t>Questions</t>
   </si>
   <si>
@@ -302,9 +296,6 @@
     <t>Compil finale : Formulaire ajouter data sur bouton ajouter</t>
   </si>
   <si>
-    <t>region est</t>
-  </si>
-  <si>
     <t>Modifier le code pour mettre région EST</t>
   </si>
   <si>
@@ -312,6 +303,15 @@
   </si>
   <si>
     <t>l1386</t>
+  </si>
+  <si>
+    <t>Actualisation des autres mins c'est comment ? Le min faut le recup ou ?? Faut le faire par ligne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check </t>
+  </si>
+  <si>
+    <t>Remplacement du code</t>
   </si>
 </sst>
 </file>
@@ -748,24 +748,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Feuil1"/>
+  <sheetPr codeName="Feuil1" filterMode="1"/>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="85" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.85546875" customWidth="1"/>
-    <col min="4" max="4" width="48.42578125" customWidth="1"/>
+    <col min="3" max="3" width="55.88671875" customWidth="1"/>
+    <col min="4" max="4" width="48.44140625" customWidth="1"/>
     <col min="5" max="5" width="136" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -785,7 +785,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>39</v>
       </c>
@@ -802,7 +802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>39</v>
       </c>
@@ -816,12 +816,12 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
@@ -830,23 +830,23 @@
         <v>10</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>12</v>
@@ -858,10 +858,10 @@
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>39</v>
       </c>
@@ -881,24 +881,24 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>39</v>
       </c>
@@ -915,9 +915,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>18</v>
@@ -932,9 +932,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>22</v>
@@ -943,45 +943,50 @@
         <v>23</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>86</v>
-      </c>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" t="s">
-        <v>56</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:F12" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters blank="1">
+        <filter val="PASOK"/>
+        <filter val="PRESKOK"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -992,130 +997,130 @@
   <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="166.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.42578125" customWidth="1"/>
+    <col min="2" max="2" width="166.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
         <v>61</v>
       </c>
-      <c r="B1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>73</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1132,44 +1137,44 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1182,28 +1187,36 @@
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Delphine/BDPT/Solutions/Solutions.xlsx
+++ b/Delphine/BDPT/Solutions/Solutions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Solutec\GithuB\BDepBDD\Delphine\BDPT\Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C73E300-12B5-435B-B923-034EBFE93BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFFEC2F-9F80-4099-BD98-30A568255003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>Identifier la région et la typologie</t>
   </si>
@@ -312,6 +312,15 @@
   </si>
   <si>
     <t>Remplacement du code</t>
+  </si>
+  <si>
+    <t>Remplacement code</t>
+  </si>
+  <si>
+    <t>Compil finale</t>
+  </si>
+  <si>
+    <t>Région</t>
   </si>
 </sst>
 </file>
@@ -751,8 +760,8 @@
   <sheetPr codeName="Feuil1" filterMode="1"/>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1131,50 +1140,63 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA9EC38-04CA-415F-B6A6-7CB0CABC86F5}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Delphine/BDPT/Solutions/Solutions.xlsx
+++ b/Delphine/BDPT/Solutions/Solutions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Solutec\GithuB\BDepBDD\Delphine\BDPT\Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFFEC2F-9F80-4099-BD98-30A568255003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F225EFB-1E46-4DFA-9140-BB78968BE8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="91">
   <si>
     <t>Identifier la région et la typologie</t>
   </si>
@@ -197,9 +197,6 @@
   </si>
   <si>
     <t>Dans les fichiers région et dans le fichier compil l642 peut-être un soucis a cause de fournoissuer</t>
-  </si>
-  <si>
-    <t>PRESKOK</t>
   </si>
   <si>
     <t xml:space="preserve">Remplacement auto code faire en direct balek c'est bon </t>
@@ -760,8 +757,8 @@
   <sheetPr codeName="Feuil1" filterMode="1"/>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -839,7 +836,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -850,12 +847,12 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>12</v>
@@ -890,12 +887,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -960,12 +957,12 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -984,7 +981,7 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -992,7 +989,6 @@
     <filterColumn colId="0">
       <filters blank="1">
         <filter val="PASOK"/>
-        <filter val="PRESKOK"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1019,117 +1015,117 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
         <v>56</v>
-      </c>
-      <c r="C1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
         <v>60</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
         <v>62</v>
-      </c>
-      <c r="B4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
         <v>65</v>
-      </c>
-      <c r="B6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1142,7 +1138,7 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1190,13 +1186,13 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" t="s">
         <v>89</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>90</v>
-      </c>
-      <c r="C11" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1230,15 +1226,15 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
         <v>84</v>
-      </c>
-      <c r="B17" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Delphine/BDPT/Solutions/Solutions.xlsx
+++ b/Delphine/BDPT/Solutions/Solutions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Solutec\GithuB\BDepBDD\Delphine\BDPT\Solutions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\BDepBDD\Delphine\BDPT\Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F225EFB-1E46-4DFA-9140-BB78968BE8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6723878F-269F-431C-9657-517F93113602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -754,24 +754,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Feuil1" filterMode="1"/>
+  <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="85" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.88671875" customWidth="1"/>
-    <col min="4" max="4" width="48.44140625" customWidth="1"/>
+    <col min="3" max="3" width="55.85546875" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" customWidth="1"/>
     <col min="5" max="5" width="136" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -791,7 +791,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>39</v>
       </c>
@@ -808,7 +808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>39</v>
       </c>
@@ -825,7 +825,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>39</v>
       </c>
@@ -839,7 +839,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>40</v>
       </c>
@@ -850,7 +850,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>86</v>
       </c>
@@ -867,7 +867,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>39</v>
       </c>
@@ -887,7 +887,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>86</v>
       </c>
@@ -904,7 +904,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>39</v>
       </c>
@@ -921,7 +921,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>39</v>
       </c>
@@ -938,7 +938,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>39</v>
       </c>
@@ -955,17 +955,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -976,7 +976,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -985,13 +985,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F12" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters blank="1">
-        <filter val="PASOK"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F12" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1006,14 +1000,14 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="166.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.44140625" customWidth="1"/>
+    <col min="2" max="2" width="166.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -1024,7 +1018,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -1035,7 +1029,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -1043,7 +1037,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -1051,7 +1045,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -1062,7 +1056,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1070,7 +1064,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -1078,52 +1072,52 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>80</v>
       </c>
@@ -1142,49 +1136,49 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1"/>
-    <col min="3" max="3" width="32.109375" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -1209,27 +1203,27 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>83</v>
       </c>
